--- a/biology/Botanique/Melothria_scabra/Melothria_scabra.xlsx
+++ b/biology/Botanique/Melothria_scabra/Melothria_scabra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melothria scabra, ou « concombre à confire », est une espèce de plante à fleurs de la famille des Cucurbitacées originaire du Mexique et d'Amérique centrale. 
 C'est une plante grimpante très facile à cultiver. Elle produit de petits fruits comestibles à l'épiderme tigré de la taille d'une grosse olive.
-Le goût des fruits rappelle celui du concombre avec une pointe d'amertume due à l'épiderme. Ils peuvent se consommer crus (salade de crudités) mais sont le plus souvent mis à confire dans du vinaigre et sont alors utilisés comme condiment à la manière des cornichons, par exemple en accompagnement de la charcuterie[1]. Ils sont très prisés en Russie.
+Le goût des fruits rappelle celui du concombre avec une pointe d'amertume due à l'épiderme. Ils peuvent se consommer crus (salade de crudités) mais sont le plus souvent mis à confire dans du vinaigre et sont alors utilisés comme condiment à la manière des cornichons, par exemple en accompagnement de la charcuterie. Ils sont très prisés en Russie.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mélothrie pendante, cucamelon, melon de souris, pastèque miniature, concombre du Mexique, cornichon aigre mexicain, et pepquinos ou sandiita (petite pastèque) au Mexique.
 On pense qu'il s'agissait d'une culture domestiquée avant le début de la colonisation occidentale des Amériques.
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces plantes poussent lentement lorsqu'elles s'établissent, mais peuvent finalement atteindre jusqu'à 3 mètres dans des conditions propices. Comparativement aux autres concombres, elles sont résistantes à la sécheresse et aux parasites.
 Semblable au concombre, ces plantes sont monoïques, produisant des fleurs mâles et femelles sur un même plant. Ces plantes peuvent se polliniser, mais les fleurs individuelles ne sont pas autofertiles. Les fleurs sont petites et jaunes, d'environ quatre millimètres de diamètre. Les fruits se développent à la base de la fleur femelle. Les experts s'entendent pour dire que le fruit du cucamelon ressemble à l'enfant d'amour d'un concombre libanais et d'un melon d'eau, tout ca dans un appendice de la taille d'un gros raisin.
